--- a/data/trans_bre/P1804_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1804_2016_2023-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>2.26209678796537</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.840046093146435</v>
+        <v>3.840046093146437</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.3141675756915058</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.6219760792843706</v>
+        <v>0.6219760792843709</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.07048991438045939</v>
+        <v>-0.04318236230636643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5866983793003469</v>
+        <v>0.6336942143500109</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.01180028261091875</v>
+        <v>0.001080391706040447</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.04256510373576469</v>
+        <v>0.05136420596858115</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.4503619312204</v>
+        <v>4.406066470998772</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.08377667275978</v>
+        <v>7.012010220187348</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.7225725354285156</v>
+        <v>0.7510198113630794</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.539124323413032</v>
+        <v>1.448303297241118</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.068822369510275</v>
+        <v>2.032459810348516</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.246973184829291</v>
+        <v>2.0896491127181</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2975815483833004</v>
+        <v>0.2721074459611401</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.448500610351899</v>
+        <v>0.4238505509234838</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.99968993657931</v>
+        <v>7.467190133102257</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.078147365567743</v>
+        <v>5.982829697535504</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.473973524444672</v>
+        <v>1.543790434854735</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.53818590925515</v>
+        <v>2.390778649104345</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.031842859881289</v>
+        <v>1.941562142707056</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.081158162045035</v>
+        <v>-1.955121017349186</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.2960420259910381</v>
+        <v>0.2982848026069829</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2384269550984422</v>
+        <v>-0.2204172239430003</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.309735727426419</v>
+        <v>7.092705575624469</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.883861241239851</v>
+        <v>2.972149092353738</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.77905370135228</v>
+        <v>1.683607686960685</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.4877656701323641</v>
+        <v>0.5326445560261768</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4137010573675982</v>
+        <v>-0.08868777245154258</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.163583953492763</v>
+        <v>-1.420707050381664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05838807408073016</v>
+        <v>-0.01741373003258562</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1209948898673361</v>
+        <v>-0.1589515338801464</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.239707675446047</v>
+        <v>7.321670266877235</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.18250427434928</v>
+        <v>3.832352694609937</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.359292655524361</v>
+        <v>1.266490100293838</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6429126460036626</v>
+        <v>0.5973887710659158</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>3.605910232382811</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.303259877215678</v>
+        <v>2.30325987721568</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.5682130573746549</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.3702118144129927</v>
+        <v>0.3702118144129929</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.258497749575429</v>
+        <v>2.205629826465596</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.110622382279196</v>
+        <v>1.041251829226613</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.3118438049597591</v>
+        <v>0.3010882187350579</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1585647118071844</v>
+        <v>0.1472946559906058</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.047502588250126</v>
+        <v>4.943710570570256</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.593794236460552</v>
+        <v>3.660804724472842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.8757398304650367</v>
+        <v>0.8382238279257795</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.6492133647761904</v>
+        <v>0.6632277535330928</v>
       </c>
     </row>
     <row r="19">
